--- a/public/Cơ-sở-vật-chất.xlsx
+++ b/public/Cơ-sở-vật-chất.xlsx
@@ -22,10 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">Tên</t>
+    <t xml:space="preserve">Tên tài sản</t>
   </si>
   <si>
-    <t xml:space="preserve">Giá</t>
+    <t xml:space="preserve">Tiền mua vật tư</t>
   </si>
   <si>
     <t xml:space="preserve">Tiền công</t>
@@ -144,12 +144,12 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
